--- a/Statystyki_2018/Template/okrc_.xlsx
+++ b/Statystyki_2018/Template/okrc_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -130,69 +130,72 @@
     <t>stare</t>
   </si>
   <si>
+    <t>Wiceprezes</t>
+  </si>
+  <si>
+    <t>inna funkcja</t>
+  </si>
+  <si>
+    <t>Krystian</t>
+  </si>
+  <si>
+    <t>Kordyka</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>sędzia liniowy</t>
+  </si>
+  <si>
+    <t>Ula</t>
+  </si>
+  <si>
+    <t>Kowalewska</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>przewodniczący wydziału</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Michał</t>
+  </si>
+  <si>
+    <t>Sokołowski</t>
+  </si>
+  <si>
+    <t>p.o. SSA</t>
+  </si>
+  <si>
+    <t>prezes</t>
+  </si>
+  <si>
+    <t>tomasz</t>
+  </si>
+  <si>
+    <t>trzaskowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zaległość</t>
+  </si>
+  <si>
+    <t>Zaległość z poprzedniego miesiąca</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Krystian</t>
-  </si>
-  <si>
-    <t>Kordyka</t>
-  </si>
-  <si>
-    <t>Ula</t>
-  </si>
-  <si>
-    <t>Kowalewska</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Michał</t>
-  </si>
-  <si>
-    <t>Sokołowski</t>
-  </si>
-  <si>
-    <t>tomasz</t>
-  </si>
-  <si>
-    <t>trzaskowski</t>
-  </si>
-  <si>
-    <t>Pozostało z poprzedniego okresu</t>
-  </si>
-  <si>
-    <t>Wpłynęło</t>
-  </si>
-  <si>
-    <t>Załatwiono</t>
-  </si>
-  <si>
-    <t>Pozostało na następny okres</t>
-  </si>
-  <si>
-    <t>Zaległości</t>
-  </si>
-  <si>
-    <t>3 - 6 miesięcy</t>
-  </si>
-  <si>
-    <t>6 - 12 miesięcy</t>
-  </si>
-  <si>
-    <t>od 1 do 2 lat</t>
-  </si>
-  <si>
-    <t>od 2 do 3 lat</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -202,16 +205,43 @@
     <t>0</t>
   </si>
   <si>
-    <t>powyżej 3 lat</t>
+    <t>Wpływ</t>
+  </si>
+  <si>
+    <t>Załatwienia</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>Pozostało na następny miesiąc</t>
+  </si>
+  <si>
+    <t>powyżej 3-6 m-cy</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
+    <t>powyżej 6-12 m-cy</t>
+  </si>
+  <si>
     <t xml:space="preserve">3                             </t>
+  </si>
+  <si>
+    <t>ponad 12 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w tym </t>
+  </si>
+  <si>
+    <t>zawieszone</t>
+  </si>
+  <si>
+    <t>powyżej 3 do 5 lat</t>
+  </si>
+  <si>
+    <t>ponad 5 letnie</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1496,13 +1526,13 @@
         <v>36</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="31">
         <v>0</v>
@@ -1579,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="31">
         <v>0</v>
@@ -1665,16 +1695,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" s="31">
         <v>0</v>
@@ -1751,16 +1781,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="31">
         <v>0</v>
@@ -1837,16 +1867,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F14" s="31">
         <v>0</v>
@@ -1923,16 +1953,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F15" s="31">
         <v>0</v>
@@ -2006,11 +2036,13 @@
     </row>
     <row r="16">
       <c r="A16" s="29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2021,28 +2053,44 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
+      <c r="U16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -2053,28 +2101,44 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
+      <c r="R17" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
+      <c r="U17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -2085,28 +2149,44 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
+      <c r="R18" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
+      <c r="U18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>51</v>
-      </c>
+      <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -2117,30 +2197,44 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="R19" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
+      <c r="U19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="A20" s="29"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -2151,28 +2245,44 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="R20" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
+      <c r="U20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -2183,28 +2293,44 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="R21" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
+      <c r="U21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z21" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
     </row>
     <row r="22">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -2215,30 +2341,48 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="R22" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+      <c r="U22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -2246,59 +2390,47 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="N23" s="29"/>
       <c r="O23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>59</v>
-      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="S23" s="29"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB23" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
     </row>
     <row r="24">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
-      <c r="C24" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -2306,49 +2438,37 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="N24" s="29"/>
       <c r="O24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="S24" s="29"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB24" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="29"/>
@@ -2356,7 +2476,9 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -2364,357 +2486,37 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="N25" s="29"/>
       <c r="O25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S25" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X25" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y25" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB25" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="N26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB26" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="N27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB27" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="N28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB28" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="N29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB29" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="N30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB30" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="N31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB31" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="N32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="U32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB32" s="0" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2754,21 +2556,38 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:C25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="A16:C25"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D23:E25"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:U25"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4">

--- a/Statystyki_2018/Template/okrc_.xlsx
+++ b/Statystyki_2018/Template/okrc_.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191D69B2-C629-4F1F-BE87-E9306F4BF66D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74619B2-73C9-45A9-B47F-72353FF28A79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="C" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -70,6 +82,9 @@
     <t>Uzasadnienia wygłoszone</t>
   </si>
   <si>
+    <t xml:space="preserve">Terminowość sporządzania uzasadnień uzasadnień C i Ns </t>
+  </si>
+  <si>
     <t>ZAŁATWIENIA</t>
   </si>
   <si>
@@ -214,9 +229,6 @@
     <t>41</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -293,14 +305,32 @@
   </si>
   <si>
     <t>ponad 5 letnie</t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>WYZNACZENIA</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>miesiąc</t>
+  </si>
+  <si>
+    <t>sąd</t>
+  </si>
+  <si>
+    <t>wydział</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -379,8 +409,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +461,38 @@
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFABAB"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -617,6 +709,312 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -653,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="61">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -684,6 +1082,57 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="27" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,26 +1142,17 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -720,33 +1160,98 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="5" applyFill="1" borderId="28" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="5" applyFill="1" borderId="29" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="30" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="32" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="33" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="35" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="36" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="37" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="31" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -825,6 +1330,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="C"/>
+      <sheetName val="Wyznaczenia"/>
+      <sheetName val="POMOCE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>w Myślenicach</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>I Cywilny</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="U2" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,11 +1747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1252,6 +1791,11 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
     <row r="2" ht="21">
       <c r="A2" s="7"/>
@@ -1285,6 +1829,11 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3" ht="21">
       <c r="A3" s="7"/>
@@ -1318,6 +1867,11 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="4" ht="21">
       <c r="A4" s="7"/>
@@ -1349,8 +1903,13 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" ht="13.8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1378,8 +1937,13 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
-    <row r="6" ht="16.2" customHeight="1">
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1398,39 +1962,48 @@
       <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="17" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="33" t="s">
         <v>17</v>
+      </c>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="17.4" customHeight="1">
@@ -1440,96 +2013,114 @@
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="J7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="L7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="24" t="s">
+      <c r="M7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="X7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="AB7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="AC7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="AD7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="17"/>
+      <c r="AE7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG7" s="23"/>
     </row>
-    <row r="8" ht="18">
+    <row r="8" ht="18.6">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="28" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="25" t="s">
+      <c r="U8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="35"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="17"/>
+      <c r="Y8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="23"/>
     </row>
     <row r="9" ht="14.4">
       <c r="A9" s="8"/>
@@ -1538,1154 +2129,1250 @@
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="34"/>
       <c r="U9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="17"/>
+      <c r="V9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="58">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0</v>
-      </c>
-      <c r="N10" s="31">
-        <v>0</v>
-      </c>
-      <c r="O10" s="31">
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>0</v>
-      </c>
-      <c r="R10" s="31">
-        <v>0</v>
-      </c>
-      <c r="S10" s="31">
-        <v>0</v>
-      </c>
-      <c r="T10" s="31">
-        <v>0</v>
-      </c>
-      <c r="U10" s="31">
-        <v>0</v>
-      </c>
-      <c r="V10" s="31">
-        <v>0</v>
-      </c>
-      <c r="W10" s="31">
-        <v>0</v>
-      </c>
-      <c r="X10" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="31">
+      <c r="E10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0</v>
+      </c>
+      <c r="G10" s="60">
+        <v>0</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0</v>
+      </c>
+      <c r="P10" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="60">
+        <v>0</v>
+      </c>
+      <c r="R10" s="60">
+        <v>0</v>
+      </c>
+      <c r="S10" s="60">
+        <v>0</v>
+      </c>
+      <c r="T10" s="60">
+        <v>0</v>
+      </c>
+      <c r="U10" s="60">
+        <v>0</v>
+      </c>
+      <c r="V10" s="60">
+        <v>0</v>
+      </c>
+      <c r="W10" s="60">
+        <v>0</v>
+      </c>
+      <c r="X10" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0</v>
-      </c>
-      <c r="N11" s="31">
-        <v>0</v>
-      </c>
-      <c r="O11" s="31">
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>0</v>
-      </c>
-      <c r="R11" s="31">
-        <v>0</v>
-      </c>
-      <c r="S11" s="31">
-        <v>0</v>
-      </c>
-      <c r="T11" s="31">
-        <v>0</v>
-      </c>
-      <c r="U11" s="31">
-        <v>0</v>
-      </c>
-      <c r="V11" s="31">
-        <v>0</v>
-      </c>
-      <c r="W11" s="31">
-        <v>0</v>
-      </c>
-      <c r="X11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="31">
+      <c r="E11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0</v>
+      </c>
+      <c r="G11" s="60">
+        <v>0</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>0</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0</v>
+      </c>
+      <c r="S11" s="60">
+        <v>0</v>
+      </c>
+      <c r="T11" s="60">
+        <v>0</v>
+      </c>
+      <c r="U11" s="60">
+        <v>0</v>
+      </c>
+      <c r="V11" s="60">
+        <v>0</v>
+      </c>
+      <c r="W11" s="60">
+        <v>0</v>
+      </c>
+      <c r="X11" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="58">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
-        <v>0</v>
-      </c>
-      <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>0</v>
-      </c>
-      <c r="R12" s="31">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31">
-        <v>0</v>
-      </c>
-      <c r="T12" s="31">
-        <v>0</v>
-      </c>
-      <c r="U12" s="31">
-        <v>0</v>
-      </c>
-      <c r="V12" s="31">
-        <v>0</v>
-      </c>
-      <c r="W12" s="31">
-        <v>0</v>
-      </c>
-      <c r="X12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="31">
+      <c r="E12" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0</v>
+      </c>
+      <c r="G12" s="60">
+        <v>0</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0</v>
+      </c>
+      <c r="J12" s="60">
+        <v>0</v>
+      </c>
+      <c r="K12" s="60">
+        <v>0</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0</v>
+      </c>
+      <c r="M12" s="60">
+        <v>0</v>
+      </c>
+      <c r="N12" s="60">
+        <v>0</v>
+      </c>
+      <c r="O12" s="60">
+        <v>0</v>
+      </c>
+      <c r="P12" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="60">
+        <v>0</v>
+      </c>
+      <c r="R12" s="60">
+        <v>0</v>
+      </c>
+      <c r="S12" s="60">
+        <v>0</v>
+      </c>
+      <c r="T12" s="60">
+        <v>0</v>
+      </c>
+      <c r="U12" s="60">
+        <v>0</v>
+      </c>
+      <c r="V12" s="60">
+        <v>0</v>
+      </c>
+      <c r="W12" s="60">
+        <v>0</v>
+      </c>
+      <c r="X12" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29">
+      <c r="A13" s="58">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="31">
+      <c r="E13" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60">
         <v>2038</v>
       </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0</v>
-      </c>
-      <c r="M13" s="31" t="s">
+      <c r="G13" s="60">
+        <v>0</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0</v>
+      </c>
+      <c r="K13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="31">
-        <v>0</v>
-      </c>
-      <c r="O13" s="31">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>0</v>
-      </c>
-      <c r="R13" s="31">
-        <v>0</v>
-      </c>
-      <c r="S13" s="31">
-        <v>0</v>
-      </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
-      <c r="U13" s="31">
-        <v>0</v>
-      </c>
-      <c r="V13" s="31">
-        <v>0</v>
-      </c>
-      <c r="W13" s="31">
-        <v>0</v>
-      </c>
-      <c r="X13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="31">
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="60">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
+        <v>0</v>
+      </c>
+      <c r="P13" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="60">
+        <v>0</v>
+      </c>
+      <c r="R13" s="60">
+        <v>0</v>
+      </c>
+      <c r="S13" s="60">
+        <v>0</v>
+      </c>
+      <c r="T13" s="60">
+        <v>0</v>
+      </c>
+      <c r="U13" s="60">
+        <v>0</v>
+      </c>
+      <c r="V13" s="60">
+        <v>0</v>
+      </c>
+      <c r="W13" s="60">
+        <v>0</v>
+      </c>
+      <c r="X13" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="58">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="60">
+        <v>2056</v>
+      </c>
+      <c r="G14" s="60">
+        <v>0</v>
+      </c>
+      <c r="H14" s="60">
+        <v>0</v>
+      </c>
+      <c r="I14" s="60">
+        <v>0</v>
+      </c>
+      <c r="J14" s="60">
+        <v>0</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="60">
+        <v>0</v>
+      </c>
+      <c r="M14" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="31">
-        <v>2056</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="31">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="31">
-        <v>0</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="31">
-        <v>0</v>
-      </c>
-      <c r="O14" s="31">
-        <v>0</v>
-      </c>
-      <c r="P14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>0</v>
-      </c>
-      <c r="R14" s="31">
-        <v>0</v>
-      </c>
-      <c r="S14" s="31">
-        <v>0</v>
-      </c>
-      <c r="T14" s="31">
-        <v>0</v>
-      </c>
-      <c r="U14" s="31">
-        <v>0</v>
-      </c>
-      <c r="V14" s="31">
-        <v>0</v>
-      </c>
-      <c r="W14" s="31">
-        <v>0</v>
-      </c>
-      <c r="X14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="31">
+      <c r="N14" s="60">
+        <v>0</v>
+      </c>
+      <c r="O14" s="60">
+        <v>0</v>
+      </c>
+      <c r="P14" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="60">
+        <v>0</v>
+      </c>
+      <c r="R14" s="60">
+        <v>0</v>
+      </c>
+      <c r="S14" s="60">
+        <v>0</v>
+      </c>
+      <c r="T14" s="60">
+        <v>0</v>
+      </c>
+      <c r="U14" s="60">
+        <v>0</v>
+      </c>
+      <c r="V14" s="60">
+        <v>0</v>
+      </c>
+      <c r="W14" s="60">
+        <v>0</v>
+      </c>
+      <c r="X14" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29">
+      <c r="A15" s="58">
         <v>6</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="31">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31">
-        <v>0</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="31">
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>0</v>
-      </c>
-      <c r="R15" s="31">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31">
-        <v>0</v>
-      </c>
-      <c r="T15" s="31">
-        <v>0</v>
-      </c>
-      <c r="U15" s="31">
-        <v>0</v>
-      </c>
-      <c r="V15" s="31">
-        <v>0</v>
-      </c>
-      <c r="W15" s="31">
-        <v>0</v>
-      </c>
-      <c r="X15" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="31">
+      <c r="E15" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+      <c r="G15" s="60">
+        <v>0</v>
+      </c>
+      <c r="H15" s="60">
+        <v>0</v>
+      </c>
+      <c r="I15" s="60">
+        <v>0</v>
+      </c>
+      <c r="J15" s="60">
+        <v>0</v>
+      </c>
+      <c r="K15" s="60">
+        <v>0</v>
+      </c>
+      <c r="L15" s="60">
+        <v>0</v>
+      </c>
+      <c r="M15" s="60">
+        <v>0</v>
+      </c>
+      <c r="N15" s="60">
+        <v>0</v>
+      </c>
+      <c r="O15" s="60">
+        <v>0</v>
+      </c>
+      <c r="P15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>0</v>
+      </c>
+      <c r="R15" s="60">
+        <v>0</v>
+      </c>
+      <c r="S15" s="60">
+        <v>0</v>
+      </c>
+      <c r="T15" s="60">
+        <v>0</v>
+      </c>
+      <c r="U15" s="60">
+        <v>0</v>
+      </c>
+      <c r="V15" s="60">
+        <v>0</v>
+      </c>
+      <c r="W15" s="60">
+        <v>0</v>
+      </c>
+      <c r="X15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="A16" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="W16" s="29" t="s">
+      <c r="X16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="X16" s="29" t="s">
+      <c r="AB16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB16" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="60"/>
     </row>
     <row r="17">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="29" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29" t="s">
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="29" t="s">
+      <c r="AB17" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="X17" s="29" t="s">
+      <c r="AC17" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Y17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB17" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD17" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="60"/>
     </row>
     <row r="18">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="60"/>
     </row>
     <row r="19">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="X19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB19" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD19" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="60"/>
     </row>
     <row r="20">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W20" s="29" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="X20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AC20" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD20" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG20" s="60"/>
     </row>
     <row r="21">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29" t="s">
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="S21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="X21" s="29" t="s">
+      <c r="X21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Y21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB21" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD21" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF21" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" s="60"/>
     </row>
     <row r="22">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="29" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC22" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD22" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF22" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="60"/>
     </row>
     <row r="23">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29" t="s">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29" t="s">
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X23" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="W23" s="29" t="s">
+      <c r="AB23" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="X23" s="29" t="s">
+      <c r="AC23" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD23" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF23" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG23" s="60"/>
     </row>
     <row r="24">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29" t="s">
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X24" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="W24" s="29" t="s">
+      <c r="AB24" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="X24" s="29" t="s">
+      <c r="AC24" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Y24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG24" s="60"/>
     </row>
     <row r="25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="W25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB25" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X25" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:V9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:AA6"/>
-    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="T6:AF6"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AG6:AG9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA4"/>
+    <mergeCell ref="F1:AF4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:AA5"/>
+    <mergeCell ref="A5:AF5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S6:S9"/>
     <mergeCell ref="A16:C25"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D17:S17"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="D20:S20"/>
+    <mergeCell ref="D21:S21"/>
+    <mergeCell ref="D22:S22"/>
     <mergeCell ref="D23:E25"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="F24:N24"/>
-    <mergeCell ref="F25:N25"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="X25:Z25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"#REF!pomoce #REF!"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"#REF!pomoce #REF!"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2697,4 +3384,666 @@
     <oddFooter>&amp;CStrona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE67CE59-7BC0-432A-AACC-238163299FDB}">
+  <dimension ref="A1:AJ13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" ht="15.6">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+    </row>
+    <row r="2" ht="15.6">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="str">
+        <f>[1]C!C2:D2</f>
+        <v>w Myślenicach</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42">
+        <f>IF([1]POMOCE!U2,0,"BŁĘDNA NAZWA SĄDU / WYDZIAŁU")</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+    </row>
+    <row r="3" ht="15.6">
+      <c r="A3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="str">
+        <f>[1]C!C3:D3</f>
+        <v>I Cywilny</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+    </row>
+    <row r="4" ht="15.6">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+    </row>
+    <row r="5" ht="16.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="16.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="58">
+        <v>1</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="60">
+        <v>0</v>
+      </c>
+      <c r="H8" s="60">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
+        <v>0</v>
+      </c>
+      <c r="J8" s="60">
+        <v>0</v>
+      </c>
+      <c r="K8" s="60">
+        <v>0</v>
+      </c>
+      <c r="L8" s="60">
+        <v>0</v>
+      </c>
+      <c r="M8" s="60">
+        <v>0</v>
+      </c>
+      <c r="N8" s="60">
+        <v>0</v>
+      </c>
+      <c r="O8" s="60">
+        <v>0</v>
+      </c>
+      <c r="P8" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="58">
+        <v>2</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="60">
+        <v>0</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60">
+        <v>0</v>
+      </c>
+      <c r="J9" s="60">
+        <v>0</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0</v>
+      </c>
+      <c r="L9" s="60">
+        <v>0</v>
+      </c>
+      <c r="M9" s="60">
+        <v>0</v>
+      </c>
+      <c r="N9" s="60">
+        <v>0</v>
+      </c>
+      <c r="O9" s="60">
+        <v>0</v>
+      </c>
+      <c r="P9" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="58">
+        <v>3</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0</v>
+      </c>
+      <c r="G10" s="60">
+        <v>0</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0</v>
+      </c>
+      <c r="P10" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="58">
+        <v>4</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0</v>
+      </c>
+      <c r="G11" s="60">
+        <v>0</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="58">
+        <v>5</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0</v>
+      </c>
+      <c r="G12" s="60">
+        <v>0</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0</v>
+      </c>
+      <c r="J12" s="60">
+        <v>0</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="60">
+        <v>0</v>
+      </c>
+      <c r="O12" s="60">
+        <v>0</v>
+      </c>
+      <c r="P12" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="58">
+        <v>6</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="60">
+        <v>0</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0</v>
+      </c>
+      <c r="K13" s="60">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60">
+        <v>0</v>
+      </c>
+      <c r="N13" s="60">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
+        <v>0</v>
+      </c>
+      <c r="P13" s="60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:AJ5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:J5 P2:AJ5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:O5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D5" xr:uid="{FAEE3191-1B6C-40C5-9B89-88B9D54B33BC}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1868196B-BEF8-4969-BA7D-3264147A595B}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{625DDF85-002A-4344-BA43-DDB62E2D4960}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C3:D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D39FE250-5E01-4987-83FA-ED4BD467A369}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C2:D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>